--- a/Sentences/Pilots/Final_tresholded_sentences.xlsx
+++ b/Sentences/Pilots/Final_tresholded_sentences.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailtauacil-my.sharepoint.com/personal/hagars1_mail_tau_ac_il/Documents/Desktop/Stage/LPC_2022/Sentences/Pilots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{EC4A61BF-600F-41D8-938F-F7594593B49B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:40009_{EC4A61BF-600F-41D8-938F-F7594593B49B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{460E623D-5734-45D8-AE37-B7031086B24C}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300"/>
+    <workbookView xWindow="4500" yWindow="2720" windowWidth="10800" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Thresholded from all pilots" sheetId="1" r:id="rId1"/>
@@ -503,7 +503,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1391,17 +1391,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="51.453125" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" customWidth="1"/>
     <col min="3" max="3" width="54" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -2450,7 +2453,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">

--- a/Sentences/Pilots/Final_tresholded_sentences.xlsx
+++ b/Sentences/Pilots/Final_tresholded_sentences.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailtauacil-my.sharepoint.com/personal/hagars1_mail_tau_ac_il/Documents/Desktop/Stage/LPC_2022/Sentences/Pilots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:40009_{EC4A61BF-600F-41D8-938F-F7594593B49B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{460E623D-5734-45D8-AE37-B7031086B24C}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:40009_{EC4A61BF-600F-41D8-938F-F7594593B49B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77EC92CE-A9A0-4CCB-A4AF-4D187FD9F692}"/>
   <bookViews>
-    <workbookView xWindow="4500" yWindow="2720" windowWidth="10800" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Thresholded from all pilots" sheetId="1" r:id="rId1"/>
@@ -1048,20 +1048,20 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>-1</xdr:rowOff>
+      <xdr:rowOff>9071</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>263071</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>90715</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>388260</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>112123</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE035EC4-8C48-4717-A543-C8B3996AD9F7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{689AADA0-62F5-4174-9E51-FC648BB28B75}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1069,21 +1069,22 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect l="9773" r="8185"/>
-        <a:stretch/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="181428"/>
-          <a:ext cx="16065500" cy="4445001"/>
+          <a:off x="0" y="190500"/>
+          <a:ext cx="25915260" cy="5183052"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1394,7 +1395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+    <sheetView topLeftCell="B16" workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
@@ -2456,8 +2457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Sentences/Pilots/Final_tresholded_sentences.xlsx
+++ b/Sentences/Pilots/Final_tresholded_sentences.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailtauacil-my.sharepoint.com/personal/hagars1_mail_tau_ac_il/Documents/Desktop/Stage/LPC_2022/Sentences/Pilots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:40009_{EC4A61BF-600F-41D8-938F-F7594593B49B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77EC92CE-A9A0-4CCB-A4AF-4D187FD9F692}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:40009_{EC4A61BF-600F-41D8-938F-F7594593B49B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47C878D3-F923-46D5-A7FE-99D01A243DE6}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Thresholded from all pilots" sheetId="1" r:id="rId1"/>
@@ -21,18 +21,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
   <si>
     <t>target</t>
-  </si>
-  <si>
-    <t>disparu</t>
-  </si>
-  <si>
-    <t>Le magicien fit tomber le rideau et la femme avait</t>
-  </si>
-  <si>
-    <t>Les visiteurs attendaient le maire et pensaient qu'il avait</t>
   </si>
   <si>
     <t>construite</t>
@@ -1393,10 +1384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1410,22 +1401,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" t="s">
         <v>154</v>
       </c>
-      <c r="B1" t="s">
-        <v>157</v>
-      </c>
       <c r="C1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" t="s">
         <v>155</v>
       </c>
-      <c r="D1" t="s">
-        <v>158</v>
-      </c>
       <c r="E1" t="s">
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -1439,13 +1430,13 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>6.4516129032257993E-2</v>
+        <v>0</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0.54074702886247805</v>
+        <v>0.60526315789473595</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -1453,19 +1444,19 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.60526315789473595</v>
+        <v>0.70967741935483797</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>9.0909090909090898E-2</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
       </c>
       <c r="F3">
-        <v>0.60526315789473595</v>
+        <v>0.61876832844574703</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -1473,19 +1464,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.70967741935483797</v>
+        <v>0.63157894736842102</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="D4">
-        <v>9.0909090909090898E-2</v>
+        <v>0</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
       </c>
       <c r="F4">
-        <v>0.61876832844574703</v>
+        <v>0.63157894736842102</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -1493,7 +1484,7 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.63157894736842102</v>
+        <v>0.63636363636363602</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1505,7 +1496,7 @@
         <v>10</v>
       </c>
       <c r="F5">
-        <v>0.63157894736842102</v>
+        <v>0.63636363636363602</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -1513,19 +1504,19 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.63636363636363602</v>
+        <v>0.67741935483870896</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>3.03030303030303E-2</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
       </c>
       <c r="F6">
-        <v>0.63636363636363602</v>
+        <v>0.64711632453567902</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -1533,19 +1524,19 @@
         <v>17</v>
       </c>
       <c r="B7">
-        <v>0.67741935483870896</v>
+        <v>0.74193548387096697</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
       </c>
       <c r="D7">
-        <v>3.03030303030303E-2</v>
+        <v>6.0606060606060601E-2</v>
       </c>
       <c r="E7" t="s">
         <v>16</v>
       </c>
       <c r="F7">
-        <v>0.64711632453567902</v>
+        <v>0.68132942326490697</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -1553,19 +1544,19 @@
         <v>20</v>
       </c>
       <c r="B8">
-        <v>0.74193548387096697</v>
+        <v>0.80645161290322498</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
       </c>
       <c r="D8">
-        <v>6.0606060606060601E-2</v>
+        <v>0.12121212121212099</v>
       </c>
       <c r="E8" t="s">
         <v>19</v>
       </c>
       <c r="F8">
-        <v>0.68132942326490697</v>
+        <v>0.68523949169110399</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -1573,19 +1564,19 @@
         <v>23</v>
       </c>
       <c r="B9">
-        <v>0.80645161290322498</v>
+        <v>0.69696969696969702</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
       </c>
       <c r="D9">
-        <v>0.12121212121212099</v>
+        <v>0</v>
       </c>
       <c r="E9" t="s">
         <v>22</v>
       </c>
       <c r="F9">
-        <v>0.68523949169110399</v>
+        <v>0.69696969696969702</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -1593,7 +1584,7 @@
         <v>26</v>
       </c>
       <c r="B10">
-        <v>0.69696969696969702</v>
+        <v>0.70967741935483797</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
@@ -1605,7 +1596,7 @@
         <v>25</v>
       </c>
       <c r="F10">
-        <v>0.69696969696969702</v>
+        <v>0.70967741935483797</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -1613,19 +1604,19 @@
         <v>29</v>
       </c>
       <c r="B11">
-        <v>0.70967741935483797</v>
+        <v>0.74193548387096697</v>
       </c>
       <c r="C11" t="s">
         <v>30</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>3.03030303030303E-2</v>
       </c>
       <c r="E11" t="s">
         <v>28</v>
       </c>
       <c r="F11">
-        <v>0.70967741935483797</v>
+        <v>0.71163245356793703</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -1633,19 +1624,19 @@
         <v>32</v>
       </c>
       <c r="B12">
-        <v>0.74193548387096697</v>
+        <v>0.73684210526315697</v>
       </c>
       <c r="C12" t="s">
         <v>33</v>
       </c>
       <c r="D12">
-        <v>3.03030303030303E-2</v>
+        <v>0</v>
       </c>
       <c r="E12" t="s">
         <v>31</v>
       </c>
       <c r="F12">
-        <v>0.71163245356793703</v>
+        <v>0.73684210526315697</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
@@ -1653,19 +1644,19 @@
         <v>35</v>
       </c>
       <c r="B13">
-        <v>0.73684210526315697</v>
+        <v>0.80645161290322498</v>
       </c>
       <c r="C13" t="s">
         <v>36</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>3.03030303030303E-2</v>
       </c>
       <c r="E13" t="s">
         <v>34</v>
       </c>
       <c r="F13">
-        <v>0.73684210526315697</v>
+        <v>0.77614858260019504</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -1673,19 +1664,19 @@
         <v>38</v>
       </c>
       <c r="B14">
-        <v>0.80645161290322498</v>
+        <v>0.83870967741935398</v>
       </c>
       <c r="C14" t="s">
         <v>39</v>
       </c>
       <c r="D14">
-        <v>3.03030303030303E-2</v>
+        <v>6.0606060606060601E-2</v>
       </c>
       <c r="E14" t="s">
         <v>37</v>
       </c>
       <c r="F14">
-        <v>0.77614858260019504</v>
+        <v>0.77810361681329399</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
@@ -1699,13 +1690,13 @@
         <v>42</v>
       </c>
       <c r="D15">
-        <v>6.0606060606060601E-2</v>
+        <v>5.2631578947368397E-2</v>
       </c>
       <c r="E15" t="s">
         <v>40</v>
       </c>
       <c r="F15">
-        <v>0.77810361681329399</v>
+        <v>0.78607809847198595</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -1713,19 +1704,19 @@
         <v>44</v>
       </c>
       <c r="B16">
-        <v>0.83870967741935398</v>
+        <v>0.78787878787878696</v>
       </c>
       <c r="C16" t="s">
         <v>45</v>
       </c>
       <c r="D16">
-        <v>5.2631578947368397E-2</v>
+        <v>0</v>
       </c>
       <c r="E16" t="s">
         <v>43</v>
       </c>
       <c r="F16">
-        <v>0.78607809847198595</v>
+        <v>0.78787878787878696</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
@@ -1733,7 +1724,7 @@
         <v>47</v>
       </c>
       <c r="B17">
-        <v>0.78787878787878696</v>
+        <v>0.81818181818181801</v>
       </c>
       <c r="C17" t="s">
         <v>48</v>
@@ -1745,7 +1736,7 @@
         <v>46</v>
       </c>
       <c r="F17">
-        <v>0.78787878787878696</v>
+        <v>0.81818181818181801</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
@@ -1813,19 +1804,19 @@
         <v>59</v>
       </c>
       <c r="B21">
-        <v>0.81818181818181801</v>
+        <v>0.94736842105263097</v>
       </c>
       <c r="C21" t="s">
         <v>60</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>0.12903225806451599</v>
       </c>
       <c r="E21" t="s">
         <v>58</v>
       </c>
       <c r="F21">
-        <v>0.81818181818181801</v>
+        <v>0.81833616298811496</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
@@ -1833,19 +1824,19 @@
         <v>62</v>
       </c>
       <c r="B22">
-        <v>0.94736842105263097</v>
+        <v>0.93548387096774099</v>
       </c>
       <c r="C22" t="s">
         <v>63</v>
       </c>
       <c r="D22">
-        <v>0.12903225806451599</v>
+        <v>0.105263157894736</v>
       </c>
       <c r="E22" t="s">
         <v>61</v>
       </c>
       <c r="F22">
-        <v>0.81833616298811496</v>
+        <v>0.83022071307300505</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
@@ -1853,19 +1844,19 @@
         <v>65</v>
       </c>
       <c r="B23">
-        <v>0.93548387096774099</v>
+        <v>0.90909090909090895</v>
       </c>
       <c r="C23" t="s">
         <v>66</v>
       </c>
       <c r="D23">
-        <v>0.105263157894736</v>
+        <v>6.4516129032257993E-2</v>
       </c>
       <c r="E23" t="s">
         <v>64</v>
       </c>
       <c r="F23">
-        <v>0.83022071307300505</v>
+        <v>0.84457478005865005</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
@@ -1873,19 +1864,19 @@
         <v>68</v>
       </c>
       <c r="B24">
-        <v>0.90909090909090895</v>
+        <v>0.97368421052631504</v>
       </c>
       <c r="C24" t="s">
         <v>69</v>
       </c>
       <c r="D24">
-        <v>6.4516129032257993E-2</v>
+        <v>0.12903225806451599</v>
       </c>
       <c r="E24" t="s">
         <v>67</v>
       </c>
       <c r="F24">
-        <v>0.84457478005865005</v>
+        <v>0.84465195246179903</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
@@ -1893,13 +1884,13 @@
         <v>71</v>
       </c>
       <c r="B25">
-        <v>0.97368421052631504</v>
+        <v>0.87096774193548299</v>
       </c>
       <c r="C25" t="s">
         <v>72</v>
       </c>
       <c r="D25">
-        <v>0.12903225806451599</v>
+        <v>2.6315789473684199E-2</v>
       </c>
       <c r="E25" t="s">
         <v>70</v>
@@ -1913,19 +1904,19 @@
         <v>74</v>
       </c>
       <c r="B26">
-        <v>0.87096774193548299</v>
+        <v>0.87878787878787801</v>
       </c>
       <c r="C26" t="s">
         <v>75</v>
       </c>
       <c r="D26">
-        <v>2.6315789473684199E-2</v>
+        <v>3.2258064516128997E-2</v>
       </c>
       <c r="E26" t="s">
         <v>73</v>
       </c>
       <c r="F26">
-        <v>0.84465195246179903</v>
+        <v>0.846529814271749</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
@@ -1933,19 +1924,19 @@
         <v>77</v>
       </c>
       <c r="B27">
-        <v>0.87878787878787801</v>
+        <v>0.84848484848484795</v>
       </c>
       <c r="C27" t="s">
         <v>78</v>
       </c>
       <c r="D27">
-        <v>3.2258064516128997E-2</v>
+        <v>0</v>
       </c>
       <c r="E27" t="s">
         <v>76</v>
       </c>
       <c r="F27">
-        <v>0.846529814271749</v>
+        <v>0.84848484848484795</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
@@ -1953,19 +1944,19 @@
         <v>80</v>
       </c>
       <c r="B28">
-        <v>0.84848484848484795</v>
+        <v>1</v>
       </c>
       <c r="C28" t="s">
         <v>81</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>0.12903225806451599</v>
       </c>
       <c r="E28" t="s">
         <v>79</v>
       </c>
       <c r="F28">
-        <v>0.84848484848484795</v>
+        <v>0.87096774193548299</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
@@ -1973,13 +1964,13 @@
         <v>83</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>0.87096774193548299</v>
       </c>
       <c r="C29" t="s">
         <v>84</v>
       </c>
       <c r="D29">
-        <v>0.12903225806451599</v>
+        <v>0</v>
       </c>
       <c r="E29" t="s">
         <v>82</v>
@@ -2013,19 +2004,19 @@
         <v>89</v>
       </c>
       <c r="B31">
-        <v>0.87096774193548299</v>
+        <v>0.90909090909090895</v>
       </c>
       <c r="C31" t="s">
         <v>90</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>3.2258064516128997E-2</v>
       </c>
       <c r="E31" t="s">
         <v>88</v>
       </c>
       <c r="F31">
-        <v>0.87096774193548299</v>
+        <v>0.87683284457477995</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
@@ -2033,19 +2024,19 @@
         <v>92</v>
       </c>
       <c r="B32">
-        <v>0.90909090909090895</v>
+        <v>0.87878787878787801</v>
       </c>
       <c r="C32" t="s">
         <v>93</v>
       </c>
       <c r="D32">
-        <v>3.2258064516128997E-2</v>
+        <v>0</v>
       </c>
       <c r="E32" t="s">
         <v>91</v>
       </c>
       <c r="F32">
-        <v>0.87683284457477995</v>
+        <v>0.87878787878787801</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
@@ -2073,7 +2064,7 @@
         <v>98</v>
       </c>
       <c r="B34">
-        <v>0.87878787878787801</v>
+        <v>0.90322580645161199</v>
       </c>
       <c r="C34" t="s">
         <v>99</v>
@@ -2085,7 +2076,7 @@
         <v>97</v>
       </c>
       <c r="F34">
-        <v>0.87878787878787801</v>
+        <v>0.90322580645161199</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
@@ -2113,19 +2104,19 @@
         <v>104</v>
       </c>
       <c r="B36">
-        <v>0.90322580645161199</v>
+        <v>0.93548387096774199</v>
       </c>
       <c r="C36" t="s">
         <v>105</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>3.03030303030303E-2</v>
       </c>
       <c r="E36" t="s">
         <v>103</v>
       </c>
       <c r="F36">
-        <v>0.90322580645161199</v>
+        <v>0.90518084066471105</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
@@ -2133,19 +2124,19 @@
         <v>107</v>
       </c>
       <c r="B37">
-        <v>0.93548387096774199</v>
+        <v>0.90909090909090895</v>
       </c>
       <c r="C37" t="s">
         <v>108</v>
       </c>
       <c r="D37">
-        <v>3.03030303030303E-2</v>
+        <v>0</v>
       </c>
       <c r="E37" t="s">
         <v>106</v>
       </c>
       <c r="F37">
-        <v>0.90518084066471105</v>
+        <v>0.90909090909090895</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
@@ -2153,7 +2144,7 @@
         <v>110</v>
       </c>
       <c r="B38">
-        <v>0.90909090909090895</v>
+        <v>0.92105263157894701</v>
       </c>
       <c r="C38" t="s">
         <v>111</v>
@@ -2165,7 +2156,7 @@
         <v>109</v>
       </c>
       <c r="F38">
-        <v>0.90909090909090895</v>
+        <v>0.92105263157894701</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
@@ -2173,7 +2164,7 @@
         <v>113</v>
       </c>
       <c r="B39">
-        <v>0.92105263157894701</v>
+        <v>0.93548387096774099</v>
       </c>
       <c r="C39" t="s">
         <v>114</v>
@@ -2185,7 +2176,7 @@
         <v>112</v>
       </c>
       <c r="F39">
-        <v>0.92105263157894701</v>
+        <v>0.93548387096774099</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
@@ -2233,7 +2224,7 @@
         <v>122</v>
       </c>
       <c r="B42">
-        <v>0.93548387096774099</v>
+        <v>0.93548387096774199</v>
       </c>
       <c r="C42" t="s">
         <v>123</v>
@@ -2245,7 +2236,7 @@
         <v>121</v>
       </c>
       <c r="F42">
-        <v>0.93548387096774099</v>
+        <v>0.93548387096774199</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
@@ -2253,19 +2244,19 @@
         <v>125</v>
       </c>
       <c r="B43">
-        <v>0.93548387096774199</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="C43" t="s">
         <v>126</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>3.03030303030303E-2</v>
       </c>
       <c r="E43" t="s">
         <v>124</v>
       </c>
       <c r="F43">
-        <v>0.93548387096774199</v>
+        <v>0.93743890518084005</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
@@ -2273,19 +2264,19 @@
         <v>128</v>
       </c>
       <c r="B44">
-        <v>0.967741935483871</v>
+        <v>0.939393939393939</v>
       </c>
       <c r="C44" t="s">
         <v>129</v>
       </c>
       <c r="D44">
-        <v>3.03030303030303E-2</v>
+        <v>0</v>
       </c>
       <c r="E44" t="s">
         <v>127</v>
       </c>
       <c r="F44">
-        <v>0.93743890518084005</v>
+        <v>0.939393939393939</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
@@ -2333,7 +2324,7 @@
         <v>137</v>
       </c>
       <c r="B47">
-        <v>0.939393939393939</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="C47" t="s">
         <v>138</v>
@@ -2345,7 +2336,7 @@
         <v>136</v>
       </c>
       <c r="F47">
-        <v>0.939393939393939</v>
+        <v>0.967741935483871</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
@@ -2373,7 +2364,7 @@
         <v>143</v>
       </c>
       <c r="B49">
-        <v>0.967741935483871</v>
+        <v>0.96969696969696895</v>
       </c>
       <c r="C49" t="s">
         <v>144</v>
@@ -2385,7 +2376,7 @@
         <v>142</v>
       </c>
       <c r="F49">
-        <v>0.967741935483871</v>
+        <v>0.96969696969696895</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
@@ -2393,7 +2384,7 @@
         <v>146</v>
       </c>
       <c r="B50">
-        <v>0.96969696969696895</v>
+        <v>1</v>
       </c>
       <c r="C50" t="s">
         <v>147</v>
@@ -2405,7 +2396,7 @@
         <v>145</v>
       </c>
       <c r="F50">
-        <v>0.96969696969696895</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
@@ -2425,26 +2416,6 @@
         <v>148</v>
       </c>
       <c r="F51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>152</v>
-      </c>
-      <c r="B52">
-        <v>1</v>
-      </c>
-      <c r="C52" t="s">
-        <v>153</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52" t="s">
-        <v>151</v>
-      </c>
-      <c r="F52">
         <v>1</v>
       </c>
     </row>
@@ -2457,7 +2428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
